--- a/output/xlsx/RF014 - Administrador de Dados--GTP-.xlsx
+++ b/output/xlsx/RF014 - Administrador de Dados--GTP-.xlsx
@@ -92,10 +92,10 @@
     <t>Actual Result</t>
   </si>
   <si>
-    <t>Administrador acessa a funcionalidade de Catalogo (Perfis) de Competencias a partir do menu inicial</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe a listagem das Catalogo (Perfis) de Competencias cadastradas com a opcao 'Alterar Gerente' dentre as varias listadas</t>
+    <t>Administrador acessa a funcionalidade de 'Catalogo (Perfis) de Competencias' a partir do menu inicial</t>
+  </si>
+  <si>
+    <t>SYSTEM exibe a listagem do Catalogo (Perfis) de Competencias cadastradas com a opcao 'Alterar Gerente' dentre as varias listadas</t>
   </si>
   <si>
     <t>Administrador com um perfil selecionado, clica na opcao 'Alterar Gerente' para efetivar a mudanca</t>

--- a/output/xlsx/RF014 - Administrador de Dados--GTP-.xlsx
+++ b/output/xlsx/RF014 - Administrador de Dados--GTP-.xlsx
@@ -71,7 +71,7 @@
     <t xml:space="preserve">Precondition: </t>
   </si>
   <si>
-    <t>Administrador esta autenticado no sistema; e, tem permissao para alterar Gerente de Desempenho</t>
+    <t>Administrador esta autenticado no sistema e tem permissao para alterar Gerente de Desempenho</t>
   </si>
   <si>
     <t>#</t>
@@ -95,7 +95,7 @@
     <t>Administrador acessa a funcionalidade de 'Catalogo (Perfis) de Competencias' a partir do menu inicial</t>
   </si>
   <si>
-    <t>SYSTEM exibe a listagem do Catalogo (Perfis) de Competencias cadastradas com a opcao 'Alterar Gerente' dentre as varias listadas</t>
+    <t>SYSTEM exibe a listagem dos Perfis de Competencias cadastrados com a opcao 'Alterar Gerente' dentre as varias exibidas</t>
   </si>
   <si>
     <t>Administrador com um perfil selecionado, clica na opcao 'Alterar Gerente' para efetivar a mudanca</t>
@@ -104,7 +104,7 @@
     <t>SYSTEM apresenta o formulario para cadastro do novo Gerente de Desempenho</t>
   </si>
   <si>
-    <t xml:space="preserve">Administrador preenche o campo 'Login do Novo Gerente de Desempenho' do novo Gerente de Desempenho para o Perfil de Competencias </t>
+    <t>Administrador preenche o campo 'Login do Novo Gerente de Desempenho' para o Perfil de Competencias</t>
   </si>
   <si>
     <t>SYSTEM apresenta o campo 'Login do Novo Gerente de Desempenho' preenchido corretamente</t>
@@ -128,7 +128,7 @@
     <t>Administrador clica na opcao 'Cancelar'</t>
   </si>
   <si>
-    <t>SYSTEM apresenta o Catalogo (Perfis) de Competencias cadastradas sem nenhuma alteracao</t>
+    <t>SYSTEM apresenta o Catalogo (Perfis) de Competencias sem nenhuma alteracao</t>
   </si>
   <si>
     <t>TC3</t>
